--- a/摄影平台创建表-字段.xlsx
+++ b/摄影平台创建表-字段.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\photography_works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60FBCD9-2060-49C6-995A-EBF094095CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC163BDC-2DF0-490C-AE40-472025AD91C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="2355" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>username</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>分类是否上线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -705,9 +713,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1030,15 +1041,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86062686-FA01-4721-925F-604FE24D8747}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1070,8 +1081,13 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1084,8 +1100,11 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1095,8 +1114,11 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1118,7 +1140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1130,6 +1152,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H3:J5"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1138,15 +1163,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479BB544-0AD9-4281-B770-AD860DDF159E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1157,7 +1182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1167,8 +1192,13 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1178,8 +1208,11 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1189,8 +1222,14 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:H4"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/摄影平台创建表-字段.xlsx
+++ b/摄影平台创建表-字段.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\photography_works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC163BDC-2DF0-490C-AE40-472025AD91C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B9A248-C54C-424E-9085-ECC32BFA1388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6390" yWindow="5025" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
     <sheet name="classify" sheetId="3" r:id="rId2"/>
+    <sheet name="collect" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>username</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -120,6 +121,42 @@
   </si>
   <si>
     <t>用户信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID，用于关联用户表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>被收藏的项目ID，用于关联项目表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收藏</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +323,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBBBBBB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -713,12 +756,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1043,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86062686-FA01-4721-925F-604FE24D8747}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -1233,4 +1279,83 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35920060-49C0-4DEB-B185-4508DF1C0457}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="39.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/摄影平台创建表-字段.xlsx
+++ b/摄影平台创建表-字段.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\photography_works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B9A248-C54C-424E-9085-ECC32BFA1388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A866127A-3AC9-43B6-BF7A-E0C3213BAC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="5025" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2490" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
     <sheet name="classify" sheetId="3" r:id="rId2"/>
-    <sheet name="collect" sheetId="4" r:id="rId3"/>
+    <sheet name="list" sheetId="5" r:id="rId3"/>
+    <sheet name="collect" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>username</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -157,6 +158,78 @@
   </si>
   <si>
     <t>用户收藏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类封面</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id列表自增</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否收藏1/0 已收藏/未收藏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少人收藏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面图最多九张，mysql只存名称，前缀自己拼接</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品名称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>命题名字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否上架，1/0，已上架/未上架，只有上架了才能在前端展示</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -760,11 +833,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1127,11 +1200,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1146,9 +1219,9 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1160,9 +1233,9 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1209,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479BB544-0AD9-4281-B770-AD860DDF159E}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1238,11 +1311,11 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1254,9 +1327,9 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1268,9 +1341,20 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1282,10 +1366,129 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24A9449-51DC-4623-BE5F-4CA63B0B79BC}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="58.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35920060-49C0-4DEB-B185-4508DF1C0457}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1316,11 +1519,11 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1332,9 +1535,9 @@
       <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1343,13 +1546,13 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/摄影平台创建表-字段.xlsx
+++ b/摄影平台创建表-字段.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\photography_works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A866127A-3AC9-43B6-BF7A-E0C3213BAC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769DD464-CF06-4FC7-A96E-E8166BD0E2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2490" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2490" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -153,83 +153,83 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>用户收藏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类封面</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id列表自增</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否收藏1/0 已收藏/未收藏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少人收藏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面图最多九张，mysql只存名称，前缀自己拼接</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品名称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>命题名字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否上架，1/0，已上架/未上架，只有上架了才能在前端展示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>收藏时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户收藏</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cover</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类封面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>id列表自增</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户昵称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>collect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否收藏1/0 已收藏/未收藏</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>collect_number</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>多少人收藏</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cover</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>封面图最多九张，mysql只存名称，前缀自己拼接</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>命题名字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否上架，1/0，已上架/未上架，只有上架了才能在前端展示</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -399,9 +399,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFBBBBBB"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -833,11 +833,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1200,11 +1200,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1219,9 +1219,9 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1233,9 +1233,9 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1311,11 +1311,11 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1327,9 +1327,9 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1341,19 +1341,19 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1369,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24A9449-51DC-4623-BE5F-4CA63B0B79BC}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1387,51 +1387,51 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1442,18 +1442,18 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1464,18 +1464,18 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35920060-49C0-4DEB-B185-4508DF1C0457}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1519,11 +1519,11 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1535,9 +1535,9 @@
       <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1546,13 +1546,12 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/摄影平台创建表-字段.xlsx
+++ b/摄影平台创建表-字段.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\photography_works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769DD464-CF06-4FC7-A96E-E8166BD0E2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B8A0F0-768D-4A38-BA0A-F6DA066A0363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2490" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2490" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>username</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -66,26 +66,6 @@
   </si>
   <si>
     <t>1是/0不是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>standby1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>standby2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>standby3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>standby4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用可为空</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -833,11 +813,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1160,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86062686-FA01-4721-925F-604FE24D8747}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1200,11 +1180,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1219,56 +1199,14 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1298,62 +1236,62 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1308,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1387,95 +1325,95 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1488,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35920060-49C0-4DEB-B185-4508DF1C0457}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1506,52 +1444,52 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/摄影平台创建表-字段.xlsx
+++ b/摄影平台创建表-字段.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\photography_works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B8A0F0-768D-4A38-BA0A-F6DA066A0363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C504A1B-E0B8-4A0B-B344-BE0F78F38D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2490" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
     <sheet name="classify" sheetId="3" r:id="rId2"/>
     <sheet name="list" sheetId="5" r:id="rId3"/>
     <sheet name="collect" sheetId="4" r:id="rId4"/>
+    <sheet name="摄影技术" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>username</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -210,6 +211,34 @@
   </si>
   <si>
     <t>收藏时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>title:标题</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce:简介</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>url:跳转得链接</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称名称名称名称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介简介简介简介简介简介简介</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/500144122/answers/updated</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic:封面图片</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +411,15 @@
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -681,7 +719,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,8 +846,11 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,8 +860,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -846,6 +890,7 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -875,6 +920,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E6B9ED-584F-72D0-4AD5-79385780C261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12973051" y="695326"/>
+          <a:ext cx="619124" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1142,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86062686-FA01-4721-925F-604FE24D8747}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1498,4 +1598,127 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48852F5-ED39-45D4-8B66-0582014BE115}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="43.25" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="K5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="F1:H3"/>
+    <mergeCell ref="K1:M3"/>
+    <mergeCell ref="P1:R3"/>
+    <mergeCell ref="A5:C7"/>
+    <mergeCell ref="F5:H7"/>
+    <mergeCell ref="K5:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{302AEC47-358D-4E68-B671-B770A099890F}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{5C5DC904-46E4-4089-BCC9-C5F3D6C0BC16}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>